--- a/fyp/scripts/pointcloud.xlsx
+++ b/fyp/scripts/pointcloud.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1C94E6-C2C4-3B40-BFD9-42F253F10364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A4DAED-F4A3-B04A-BADC-67EBAF251B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23080" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1300" windowWidth="30920" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +41,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -67,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -407,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -441,7 +450,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -449,7 +458,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -457,7 +466,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -465,7 +474,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -473,7 +482,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -481,7 +490,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -489,7 +498,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -497,122 +506,122 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -620,7 +629,167 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
